--- a/outputs-GTDB-r202/o__Lachnospirales.xlsx
+++ b/outputs-GTDB-r202/o__Lachnospirales.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Lachnospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Lachnospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__Lachnospiraceae(reject)</t>
         </is>
       </c>
     </row>
